--- a/建水国考填报表.xlsx
+++ b/建水国考填报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\qc\hqcoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214B2773-3250-4591-8930-9029BAB12EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C50357-8174-4729-A202-826992BE2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4717E138-7AC8-4CA9-99D3-96DDB70A868E}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="171">
-  <si>
-    <t>栏次</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="170">
   <si>
     <t>1.出院患者手术占比▲</t>
   </si>
@@ -515,10 +512,6 @@
   </si>
   <si>
     <t>28.医务人员满意度▲</t>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单位</t>
@@ -546,6 +539,10 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07BA412-2C91-4C63-9D65-166501723961}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -926,100 +923,97 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>32.47</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>28.96</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>26.8</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
       <c r="D3">
-        <v>32.47</v>
+        <v>12158</v>
       </c>
       <c r="E3">
-        <v>28.96</v>
+        <v>11328</v>
       </c>
       <c r="F3">
-        <v>26.8</v>
+        <v>9711</v>
       </c>
       <c r="G3">
-        <v>26.46</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>12158</v>
+        <v>37445</v>
       </c>
       <c r="E4">
-        <v>11328</v>
+        <v>39113</v>
       </c>
       <c r="F4">
-        <v>9711</v>
+        <v>36235</v>
       </c>
       <c r="G4">
-        <v>9415</v>
+        <v>35580</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1027,22 +1021,22 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
       <c r="D5">
-        <v>37445</v>
+        <v>21.59</v>
       </c>
       <c r="E5">
-        <v>39113</v>
+        <v>15.17</v>
       </c>
       <c r="F5">
-        <v>36235</v>
+        <v>14.05</v>
       </c>
       <c r="G5">
-        <v>35580</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,22 +1044,22 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>21.59</v>
+        <v>2625</v>
       </c>
       <c r="E6">
-        <v>15.17</v>
+        <v>1719</v>
       </c>
       <c r="F6">
-        <v>14.05</v>
+        <v>1364</v>
       </c>
       <c r="G6">
-        <v>11.6</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1073,22 +1067,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2625</v>
+        <v>12158</v>
       </c>
       <c r="E7">
-        <v>1719</v>
+        <v>11328</v>
       </c>
       <c r="F7">
-        <v>1364</v>
+        <v>9711</v>
       </c>
       <c r="G7">
-        <v>1092</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1096,22 +1090,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>12158</v>
+        <v>29.6</v>
       </c>
       <c r="E8">
-        <v>11328</v>
+        <v>23.97</v>
       </c>
       <c r="F8">
-        <v>9711</v>
+        <v>28.81</v>
       </c>
       <c r="G8">
-        <v>9415</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1119,22 +1113,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>29.6</v>
+        <v>3599</v>
       </c>
       <c r="E9">
-        <v>23.97</v>
+        <v>2715</v>
       </c>
       <c r="F9">
-        <v>28.81</v>
+        <v>2798</v>
       </c>
       <c r="G9">
-        <v>27.8</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,22 +1136,22 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>3599</v>
+        <v>12158</v>
       </c>
       <c r="E10">
-        <v>2715</v>
+        <v>11328</v>
       </c>
       <c r="F10">
-        <v>2798</v>
+        <v>9711</v>
       </c>
       <c r="G10">
-        <v>2617</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1165,22 +1159,22 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>12158</v>
+        <v>0.15</v>
       </c>
       <c r="E11">
-        <v>11328</v>
+        <v>0.34</v>
       </c>
       <c r="F11">
-        <v>9711</v>
+        <v>0.2</v>
       </c>
       <c r="G11">
-        <v>9415</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1188,22 +1182,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>0.15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0.34</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>0.53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1211,22 +1205,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>9454</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>9477</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>7862</v>
       </c>
       <c r="G13">
-        <v>44</v>
+        <v>8231</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,22 +1228,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>9454</v>
-      </c>
-      <c r="E14">
-        <v>9477</v>
-      </c>
-      <c r="F14">
-        <v>7862</v>
-      </c>
-      <c r="G14">
-        <v>8231</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1257,13 +1242,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>2.94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,13 +1256,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1285,82 +1270,91 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>40.03</v>
+      </c>
+      <c r="F17">
+        <v>36.94</v>
+      </c>
+      <c r="G17">
+        <v>38.21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>96189</v>
       </c>
       <c r="E18">
-        <v>40.03</v>
+        <v>116718.1</v>
       </c>
       <c r="F18">
-        <v>36.94</v>
+        <v>101525.9</v>
       </c>
       <c r="G18">
-        <v>38.21</v>
+        <v>107368.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>96189</v>
+        <v>272818</v>
       </c>
       <c r="E19">
-        <v>116718.1</v>
+        <v>291550</v>
       </c>
       <c r="F19">
-        <v>101525.9</v>
+        <v>274848</v>
       </c>
       <c r="G19">
-        <v>107368.4</v>
+        <v>280989</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>272818</v>
+        <v>54.57</v>
       </c>
       <c r="E20">
-        <v>291550</v>
+        <v>56.79</v>
       </c>
       <c r="F20">
-        <v>274848</v>
+        <v>56.08</v>
       </c>
       <c r="G20">
-        <v>280989</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1368,45 +1362,45 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>54.57</v>
+        <v>57095585</v>
       </c>
       <c r="E21">
-        <v>56.79</v>
+        <v>56975334</v>
       </c>
       <c r="F21">
-        <v>56.08</v>
+        <v>48251773</v>
       </c>
       <c r="G21">
-        <v>55</v>
+        <v>47218579</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>57095585</v>
+        <v>104622392</v>
       </c>
       <c r="E22">
-        <v>56975334</v>
+        <v>100329104</v>
       </c>
       <c r="F22">
-        <v>48251773</v>
+        <v>86044157</v>
       </c>
       <c r="G22">
-        <v>47218579</v>
+        <v>85851963</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,22 +1408,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>104622392</v>
+        <v>1.43</v>
       </c>
       <c r="E23">
-        <v>100329104</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>86044157</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>85851963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,13 +1431,13 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>1.43</v>
+        <v>1499745.69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1460,13 +1454,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>1499745.69</v>
+        <v>739375.8</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1483,22 +1477,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>739375.8</v>
+        <v>3.31</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1506,22 +1500,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>3.31</v>
+        <v>3550829</v>
       </c>
       <c r="E27">
-        <v>3.64</v>
+        <v>3806388</v>
       </c>
       <c r="F27">
-        <v>4.7</v>
+        <v>4151748</v>
       </c>
       <c r="G27">
-        <v>6.4</v>
+        <v>5787926</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1529,22 +1523,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>3550829</v>
+        <v>107038511</v>
       </c>
       <c r="E28">
-        <v>3806388</v>
+        <v>104641771.40000001</v>
       </c>
       <c r="F28">
-        <v>4151748</v>
+        <v>88331990.150000006</v>
       </c>
       <c r="G28">
-        <v>5787926</v>
+        <v>90387521.989999995</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1552,22 +1546,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>107038511</v>
+        <v>59.5</v>
       </c>
       <c r="E29">
-        <v>104641771.40000001</v>
+        <v>58.38</v>
       </c>
       <c r="F29">
-        <v>88331990.150000006</v>
+        <v>60.43</v>
       </c>
       <c r="G29">
-        <v>90387521.989999995</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1575,22 +1569,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>59.5</v>
+        <v>41811094</v>
       </c>
       <c r="E30">
-        <v>58.38</v>
+        <v>37904879</v>
       </c>
       <c r="F30">
-        <v>60.43</v>
+        <v>28376302</v>
       </c>
       <c r="G30">
-        <v>56.92</v>
+        <v>23430639</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1598,22 +1592,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>41811094</v>
+        <v>70271781.219999999</v>
       </c>
       <c r="E31">
-        <v>37904879</v>
+        <v>64930767.32</v>
       </c>
       <c r="F31">
-        <v>28376302</v>
+        <v>46959217.659999996</v>
       </c>
       <c r="G31">
-        <v>23430639</v>
+        <v>41161171.600000001</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1621,56 +1615,56 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>70271781.219999999</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>64930767.32</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>46959217.659999996</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>41161171.600000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <v>54.69</v>
+      </c>
+      <c r="F34">
+        <v>80.83</v>
+      </c>
+      <c r="G34">
+        <v>81.86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1678,45 +1672,45 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E35">
-        <v>54.69</v>
+        <v>134</v>
       </c>
       <c r="F35">
-        <v>80.83</v>
+        <v>194</v>
       </c>
       <c r="G35">
-        <v>81.86</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
       <c r="C36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="E36">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="F36">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G36">
-        <v>194</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1724,22 +1718,22 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>226</v>
+        <v>98.5</v>
       </c>
       <c r="E37">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>240</v>
+        <v>99.48</v>
       </c>
       <c r="G37">
-        <v>237</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1747,22 +1741,22 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>98.5</v>
+        <v>132</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="F38">
-        <v>99.48</v>
+        <v>193</v>
       </c>
       <c r="G38">
-        <v>97.94</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1770,22 +1764,22 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E39">
         <v>134</v>
       </c>
       <c r="F39">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G39">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1793,45 +1787,45 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>134</v>
+        <v>7.29</v>
       </c>
       <c r="E40">
-        <v>134</v>
+        <v>7.46</v>
       </c>
       <c r="F40">
-        <v>194</v>
+        <v>7.59</v>
       </c>
       <c r="G40">
-        <v>194</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>7.29</v>
+        <v>272818</v>
       </c>
       <c r="E41">
-        <v>7.46</v>
+        <v>291653</v>
       </c>
       <c r="F41">
-        <v>7.59</v>
+        <v>274858</v>
       </c>
       <c r="G41">
-        <v>7.9</v>
+        <v>280989</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1839,22 +1833,22 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>272818</v>
+        <v>37445</v>
       </c>
       <c r="E42">
-        <v>291653</v>
+        <v>39113</v>
       </c>
       <c r="F42">
-        <v>274858</v>
+        <v>36235</v>
       </c>
       <c r="G42">
-        <v>280989</v>
+        <v>35580</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1862,22 +1856,22 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>37445</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>39113</v>
+        <v>5.52</v>
       </c>
       <c r="F43">
-        <v>36235</v>
+        <v>5.37</v>
       </c>
       <c r="G43">
-        <v>35580</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1885,22 +1879,22 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>28677266.719999999</v>
       </c>
       <c r="E44">
-        <v>5.52</v>
+        <v>24958214</v>
       </c>
       <c r="F44">
-        <v>5.37</v>
+        <v>20857257</v>
       </c>
       <c r="G44">
-        <v>4.72</v>
+        <v>17073830</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1908,22 +1902,22 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>28677266.719999999</v>
+        <v>477875618.13999999</v>
       </c>
       <c r="E45">
-        <v>24958214</v>
+        <v>452311145</v>
       </c>
       <c r="F45">
-        <v>20857257</v>
+        <v>388387210</v>
       </c>
       <c r="G45">
-        <v>17073830</v>
+        <v>361891380</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,22 +1925,22 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>477875618.13999999</v>
+        <v>45.22</v>
       </c>
       <c r="E46">
-        <v>452311145</v>
+        <v>54.59</v>
       </c>
       <c r="F46">
-        <v>388387210</v>
+        <v>39.64</v>
       </c>
       <c r="G46">
-        <v>361891380</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -1954,22 +1948,22 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>45.22</v>
+        <v>368009258</v>
       </c>
       <c r="E47">
-        <v>54.59</v>
+        <v>368931650</v>
       </c>
       <c r="F47">
-        <v>39.64</v>
+        <v>183806294</v>
       </c>
       <c r="G47">
-        <v>40.06</v>
+        <v>174220562</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -1977,22 +1971,22 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>368009258</v>
+        <v>813746209.79999995</v>
       </c>
       <c r="E48">
-        <v>368931650</v>
+        <v>675776180</v>
       </c>
       <c r="F48">
-        <v>183806294</v>
+        <v>463633879</v>
       </c>
       <c r="G48">
-        <v>174220562</v>
+        <v>434914048</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2000,22 +1994,22 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>813746209.79999995</v>
+        <v>38.369999999999997</v>
       </c>
       <c r="E49">
-        <v>675776180</v>
+        <v>37.68</v>
       </c>
       <c r="F49">
-        <v>463633879</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="G49">
-        <v>434914048</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2023,22 +2017,22 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>38.369999999999997</v>
+        <v>172357520.34</v>
       </c>
       <c r="E50">
-        <v>37.68</v>
+        <v>161045971</v>
       </c>
       <c r="F50">
-        <v>39.590000000000003</v>
+        <v>145497252</v>
       </c>
       <c r="G50">
-        <v>37.42</v>
+        <v>129025400</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2046,22 +2040,22 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>172357520.34</v>
+        <v>449198351.42000002</v>
       </c>
       <c r="E51">
-        <v>161045971</v>
+        <v>427352931</v>
       </c>
       <c r="F51">
-        <v>145497252</v>
+        <v>367529953</v>
       </c>
       <c r="G51">
-        <v>129025400</v>
+        <v>344817550</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2069,68 +2063,68 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>449198351.42000002</v>
+        <v>0.01</v>
       </c>
       <c r="E52">
-        <v>427352931</v>
+        <v>0.01</v>
       </c>
       <c r="F52">
-        <v>367529953</v>
+        <v>0.01</v>
       </c>
       <c r="G52">
-        <v>344817550</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>0.01</v>
+        <v>611.76</v>
       </c>
       <c r="E53">
-        <v>0.01</v>
+        <v>584.64</v>
       </c>
       <c r="F53">
-        <v>0.01</v>
+        <v>571.5</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>538.74</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54">
-        <v>611.76</v>
+        <v>591332450.13999999</v>
       </c>
       <c r="E54">
-        <v>584.64</v>
+        <v>452311145</v>
       </c>
       <c r="F54">
-        <v>571.5</v>
+        <v>389219360</v>
       </c>
       <c r="G54">
-        <v>538.74</v>
+        <v>362291380</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2138,22 +2132,16 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>591332450.13999999</v>
+        <v>129778199.5</v>
       </c>
       <c r="E55">
-        <v>452311145</v>
-      </c>
-      <c r="F55">
-        <v>389219360</v>
-      </c>
-      <c r="G55">
-        <v>362291380</v>
+        <v>7078214</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2161,16 +2149,16 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>129778199.5</v>
+        <v>442490787.26999998</v>
       </c>
       <c r="E56">
-        <v>7078214</v>
+        <v>421547859</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2178,16 +2166,16 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57">
-        <v>442490787.26999998</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>421547859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2195,10 +2183,10 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2212,10 +2200,10 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2229,16 +2217,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2176252.5</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2246,16 +2234,16 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>2176252.5</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2263,13 +2251,13 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>466011.28</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2280,16 +2268,16 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>466011.28</v>
+        <v>1048110.07</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>794426</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2297,16 +2285,16 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>1048110.07</v>
+        <v>4551386.4800000004</v>
       </c>
       <c r="E64">
-        <v>794426</v>
+        <v>3600602</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2314,16 +2302,16 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>4551386.4800000004</v>
+        <v>10821703.039999999</v>
       </c>
       <c r="E65">
-        <v>3600602</v>
+        <v>19190044</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -2331,16 +2319,10 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C66">
-        <v>64</v>
-      </c>
-      <c r="D66">
-        <v>10821703.039999999</v>
-      </c>
-      <c r="E66">
-        <v>19190044</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,10 +2330,22 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>16.02</v>
+      </c>
+      <c r="E67">
+        <v>24.93</v>
+      </c>
+      <c r="F67">
+        <v>24.34</v>
+      </c>
+      <c r="G67">
+        <v>16.850000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,22 +2353,22 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D68">
-        <v>16.02</v>
+        <v>26905445</v>
       </c>
       <c r="E68">
-        <v>24.93</v>
+        <v>38647989.030000001</v>
       </c>
       <c r="F68">
-        <v>24.34</v>
+        <v>31376746.59</v>
       </c>
       <c r="G68">
-        <v>16.850000000000001</v>
+        <v>19773200.489999998</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -2382,22 +2376,22 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D69">
-        <v>26905445</v>
+        <v>167911644.05000001</v>
       </c>
       <c r="E69">
-        <v>38647989.030000001</v>
+        <v>155032746</v>
       </c>
       <c r="F69">
-        <v>31376746.59</v>
+        <v>128933226</v>
       </c>
       <c r="G69">
-        <v>19773200.489999998</v>
+        <v>117336347</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -2405,22 +2399,22 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>167911644.05000001</v>
+        <v>59.85</v>
       </c>
       <c r="E70">
-        <v>155032746</v>
+        <v>60.3</v>
       </c>
       <c r="F70">
-        <v>128933226</v>
+        <v>58.1</v>
       </c>
       <c r="G70">
-        <v>117336347</v>
+        <v>61.68</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -2428,22 +2422,22 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D71">
-        <v>59.85</v>
+        <v>164189378</v>
       </c>
       <c r="E71">
-        <v>60.3</v>
+        <v>160475721.19999999</v>
       </c>
       <c r="F71">
-        <v>58.1</v>
+        <v>130390607.5</v>
       </c>
       <c r="G71">
-        <v>61.68</v>
+        <v>132662709.59999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -2451,22 +2445,22 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>164189378</v>
+        <v>274340733.22000003</v>
       </c>
       <c r="E72">
-        <v>160475721.19999999</v>
+        <v>266125043</v>
       </c>
       <c r="F72">
-        <v>130390607.5</v>
+        <v>224416346</v>
       </c>
       <c r="G72">
-        <v>132662709.59999999</v>
+        <v>215091482</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -2474,22 +2468,22 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>274340733.22000003</v>
+        <v>88.81</v>
       </c>
       <c r="E73">
-        <v>266125043</v>
+        <v>91.78</v>
       </c>
       <c r="F73">
-        <v>224416346</v>
+        <v>95.08</v>
       </c>
       <c r="G73">
-        <v>215091482</v>
+        <v>98.65</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -2497,22 +2491,22 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D74">
-        <v>88.81</v>
+        <v>192440180.38</v>
       </c>
       <c r="E74">
-        <v>91.78</v>
+        <v>182758665</v>
       </c>
       <c r="F74">
-        <v>95.08</v>
+        <v>153802215</v>
       </c>
       <c r="G74">
-        <v>98.65</v>
+        <v>150375112</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -2520,22 +2514,22 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D75">
-        <v>192440180.38</v>
+        <v>216696050.80000001</v>
       </c>
       <c r="E75">
-        <v>182758665</v>
+        <v>199123710.19999999</v>
       </c>
       <c r="F75">
-        <v>153802215</v>
+        <v>161767354.09999999</v>
       </c>
       <c r="G75">
-        <v>150375112</v>
+        <v>152435910</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -2543,22 +2537,22 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>216696050.80000001</v>
+        <v>31.42</v>
       </c>
       <c r="E76">
-        <v>199123710.19999999</v>
+        <v>31.48</v>
       </c>
       <c r="F76">
-        <v>161767354.09999999</v>
+        <v>32.43</v>
       </c>
       <c r="G76">
-        <v>152435910</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -2566,22 +2560,22 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>31.42</v>
+        <v>138969301.94999999</v>
       </c>
       <c r="E77">
-        <v>31.48</v>
+        <v>132594702.28</v>
       </c>
       <c r="F77">
-        <v>32.43</v>
+        <v>114596758.19</v>
       </c>
       <c r="G77">
-        <v>29.51</v>
+        <v>98088298.409999996</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2589,22 +2583,22 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78">
-        <v>138969301.94999999</v>
+        <v>107038510.95999999</v>
       </c>
       <c r="E78">
-        <v>132594702.28</v>
+        <v>104641771.40000001</v>
       </c>
       <c r="F78">
-        <v>114596758.19</v>
+        <v>88331990.150000006</v>
       </c>
       <c r="G78">
-        <v>98088298.409999996</v>
+        <v>90387521.989999995</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -2612,22 +2606,22 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79">
-        <v>107038510.95999999</v>
+        <v>70271781.219999999</v>
       </c>
       <c r="E79">
-        <v>104641771.40000001</v>
+        <v>64930767.32</v>
       </c>
       <c r="F79">
-        <v>88331990.150000006</v>
+        <v>46959217.659999996</v>
       </c>
       <c r="G79">
-        <v>90387521.989999995</v>
+        <v>41161171.600000001</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -2635,22 +2629,22 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>70271781.219999999</v>
+        <v>47258384.710000001</v>
       </c>
       <c r="E80">
-        <v>64930767.32</v>
+        <v>51438651</v>
       </c>
       <c r="F80">
-        <v>46959217.659999996</v>
+        <v>44868309</v>
       </c>
       <c r="G80">
-        <v>41161171.600000001</v>
+        <v>49026021</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2658,22 +2652,22 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>47258384.710000001</v>
+        <v>70117810.430000007</v>
       </c>
       <c r="E81">
-        <v>51438651</v>
+        <v>67551897</v>
       </c>
       <c r="F81">
-        <v>44868309</v>
+        <v>58593297</v>
       </c>
       <c r="G81">
-        <v>49026021</v>
+        <v>53764817</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2681,22 +2675,22 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82">
-        <v>70117810.430000007</v>
+        <v>442252377.26999998</v>
       </c>
       <c r="E82">
-        <v>67551897</v>
+        <v>421157789</v>
       </c>
       <c r="F82">
-        <v>58593297</v>
+        <v>353349572</v>
       </c>
       <c r="G82">
-        <v>53764817</v>
+        <v>332427830</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -2704,22 +2698,10 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C83">
-        <v>81</v>
-      </c>
-      <c r="D83">
-        <v>442252377.26999998</v>
-      </c>
-      <c r="E83">
-        <v>421157789</v>
-      </c>
-      <c r="F83">
-        <v>353349572</v>
-      </c>
-      <c r="G83">
-        <v>332427830</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2727,10 +2709,22 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>8.31</v>
+      </c>
+      <c r="E84">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F84">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="G84">
+        <v>13.74</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -2738,22 +2732,22 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85">
-        <v>8.31</v>
+        <v>167911644.05000001</v>
       </c>
       <c r="E85">
-        <v>20.239999999999998</v>
+        <v>155032746</v>
       </c>
       <c r="F85">
-        <v>9.8800000000000008</v>
+        <v>128933226</v>
       </c>
       <c r="G85">
-        <v>13.74</v>
+        <v>117336347</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -2761,22 +2755,22 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86">
-        <v>167911644.05000001</v>
+        <v>3.09</v>
       </c>
       <c r="E86">
-        <v>155032746</v>
+        <v>18.59</v>
       </c>
       <c r="F86">
-        <v>128933226</v>
+        <v>4.34</v>
       </c>
       <c r="G86">
-        <v>117336347</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -2784,22 +2778,22 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87">
-        <v>3.09</v>
+        <v>274340733.22000003</v>
       </c>
       <c r="E87">
-        <v>18.59</v>
+        <v>266125043</v>
       </c>
       <c r="F87">
-        <v>4.34</v>
+        <v>224416346</v>
       </c>
       <c r="G87">
-        <v>6.06</v>
+        <v>215091482</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -2807,22 +2801,22 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>274340733.22000003</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E88">
-        <v>266125043</v>
+        <v>20.11</v>
       </c>
       <c r="F88">
-        <v>224416346</v>
+        <v>6.34</v>
       </c>
       <c r="G88">
-        <v>215091482</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -2830,22 +2824,22 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89">
-        <v>4.2699999999999996</v>
+        <v>435626606.58999997</v>
       </c>
       <c r="E89">
-        <v>20.11</v>
+        <v>420804051</v>
       </c>
       <c r="F89">
-        <v>6.34</v>
+        <v>350360227</v>
       </c>
       <c r="G89">
-        <v>8.44</v>
+        <v>329479560</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -2853,22 +2847,10 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C90">
-        <v>88</v>
-      </c>
-      <c r="D90">
-        <v>435626606.58999997</v>
-      </c>
-      <c r="E90">
-        <v>420804051</v>
-      </c>
-      <c r="F90">
-        <v>350360227</v>
-      </c>
-      <c r="G90">
-        <v>329479560</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -2876,10 +2858,22 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>14.17</v>
+      </c>
+      <c r="E91">
+        <v>7.25</v>
+      </c>
+      <c r="F91">
+        <v>-7.37</v>
+      </c>
+      <c r="G91">
+        <v>5.08</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -2887,22 +2881,22 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D92">
-        <v>14.17</v>
+        <v>236.58</v>
       </c>
       <c r="E92">
-        <v>7.25</v>
+        <v>207.21</v>
       </c>
       <c r="F92">
-        <v>-7.37</v>
+        <v>193.21</v>
       </c>
       <c r="G92">
-        <v>5.08</v>
+        <v>208.59</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -2910,22 +2904,22 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D93">
-        <v>236.58</v>
+        <v>167911644.05000001</v>
       </c>
       <c r="E93">
-        <v>207.21</v>
+        <v>155032746</v>
       </c>
       <c r="F93">
-        <v>193.21</v>
+        <v>128933226</v>
       </c>
       <c r="G93">
-        <v>208.59</v>
+        <v>117336347</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -2933,45 +2927,45 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D94">
-        <v>167911644.05000001</v>
+        <v>709748</v>
       </c>
       <c r="E94">
-        <v>155032746</v>
+        <v>748196</v>
       </c>
       <c r="F94">
-        <v>128933226</v>
+        <v>667305</v>
       </c>
       <c r="G94">
-        <v>117336347</v>
+        <v>562510</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D95">
-        <v>709748</v>
+        <v>9.06</v>
       </c>
       <c r="E95">
-        <v>748196</v>
+        <v>10.82</v>
       </c>
       <c r="F95">
-        <v>667305</v>
+        <v>15.48</v>
       </c>
       <c r="G95">
-        <v>562510</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -2979,22 +2973,22 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D96">
-        <v>9.06</v>
+        <v>7397.49</v>
       </c>
       <c r="E96">
-        <v>10.82</v>
+        <v>6779.35</v>
       </c>
       <c r="F96">
-        <v>15.48</v>
+        <v>6117.31</v>
       </c>
       <c r="G96">
-        <v>4.04</v>
+        <v>5297.11</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -3002,22 +2996,22 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97">
-        <v>7397.49</v>
+        <v>274340733.22000003</v>
       </c>
       <c r="E97">
-        <v>6779.35</v>
+        <v>266125043</v>
       </c>
       <c r="F97">
-        <v>6117.31</v>
+        <v>224416346</v>
       </c>
       <c r="G97">
-        <v>5297.11</v>
+        <v>215091482</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3025,22 +3019,22 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D98">
-        <v>274340733.22000003</v>
+        <v>270200</v>
       </c>
       <c r="E98">
-        <v>266125043</v>
+        <v>292450</v>
       </c>
       <c r="F98">
-        <v>224416346</v>
+        <v>278443</v>
       </c>
       <c r="G98">
-        <v>215091482</v>
+        <v>320782</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -3048,22 +3042,22 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99">
-        <v>270200</v>
+        <v>272818</v>
       </c>
       <c r="E99">
-        <v>292450</v>
+        <v>291550</v>
       </c>
       <c r="F99">
-        <v>278443</v>
+        <v>274848</v>
       </c>
       <c r="G99">
-        <v>320782</v>
+        <v>280989</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -3071,22 +3065,22 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D100">
-        <v>272818</v>
+        <v>37445</v>
       </c>
       <c r="E100">
-        <v>291550</v>
+        <v>39113</v>
       </c>
       <c r="F100">
-        <v>274848</v>
+        <v>36235</v>
       </c>
       <c r="G100">
-        <v>280989</v>
+        <v>35580</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -3094,22 +3088,10 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C101">
-        <v>99</v>
-      </c>
-      <c r="D101">
-        <v>37445</v>
-      </c>
-      <c r="E101">
-        <v>39113</v>
-      </c>
-      <c r="F101">
-        <v>36235</v>
-      </c>
-      <c r="G101">
-        <v>35580</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -3117,10 +3099,22 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <v>15.66</v>
+      </c>
+      <c r="E102">
+        <v>10.6</v>
+      </c>
+      <c r="F102">
+        <v>-13.17</v>
+      </c>
+      <c r="G102">
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -3128,22 +3122,22 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D103">
-        <v>15.66</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="E103">
-        <v>10.6</v>
+        <v>68.64</v>
       </c>
       <c r="F103">
-        <v>-13.17</v>
+        <v>62.06</v>
       </c>
       <c r="G103">
-        <v>4.4800000000000004</v>
+        <v>71.47</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -3151,22 +3145,22 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104">
-        <v>79.180000000000007</v>
+        <v>56349262.109999999</v>
       </c>
       <c r="E104">
-        <v>68.64</v>
+        <v>51357559</v>
       </c>
       <c r="F104">
-        <v>62.06</v>
+        <v>41415545</v>
       </c>
       <c r="G104">
-        <v>71.47</v>
+        <v>40203769</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
@@ -3174,22 +3168,22 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D105">
-        <v>56349262.109999999</v>
+        <v>154704</v>
       </c>
       <c r="E105">
-        <v>51357559</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>41415545</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>40203769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
@@ -3197,22 +3191,22 @@
         <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D106">
-        <v>154704</v>
+        <v>709748</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>748196</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>667305</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>562510</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
@@ -3220,22 +3214,22 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>106</v>
       </c>
-      <c r="C107">
-        <v>105</v>
-      </c>
       <c r="D107">
-        <v>709748</v>
+        <v>0.64</v>
       </c>
       <c r="E107">
-        <v>748196</v>
+        <v>6.14</v>
       </c>
       <c r="F107">
-        <v>667305</v>
+        <v>3.48</v>
       </c>
       <c r="G107">
-        <v>562510</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -3243,22 +3237,22 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D108">
-        <v>0.64</v>
+        <v>1366.81</v>
       </c>
       <c r="E108">
-        <v>6.14</v>
+        <v>1357.39</v>
       </c>
       <c r="F108">
-        <v>3.48</v>
+        <v>1278.92</v>
       </c>
       <c r="G108">
-        <v>0.71</v>
+        <v>1235.8800000000001</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -3266,22 +3260,22 @@
         <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D109">
-        <v>1366.81</v>
+        <v>50689248.850000001</v>
       </c>
       <c r="E109">
-        <v>1357.39</v>
+        <v>53284212</v>
       </c>
       <c r="F109">
-        <v>1278.92</v>
+        <v>46916445</v>
       </c>
       <c r="G109">
-        <v>1235.8800000000001</v>
+        <v>50183753</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,22 +3283,22 @@
         <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D110">
-        <v>50689248.850000001</v>
+        <v>160468</v>
       </c>
       <c r="E110">
-        <v>53284212</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>46916445</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>50183753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
@@ -3312,22 +3306,22 @@
         <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D111">
-        <v>160468</v>
+        <v>270200</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>292450</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>278443</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>320782</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
@@ -3335,22 +3329,22 @@
         <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D112">
-        <v>270200</v>
+        <v>272818</v>
       </c>
       <c r="E112">
-        <v>292450</v>
+        <v>291550</v>
       </c>
       <c r="F112">
-        <v>278443</v>
+        <v>274848</v>
       </c>
       <c r="G112">
-        <v>320782</v>
+        <v>280989</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -3358,22 +3352,22 @@
         <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D113">
-        <v>272818</v>
+        <v>37445</v>
       </c>
       <c r="E113">
-        <v>291550</v>
+        <v>39113</v>
       </c>
       <c r="F113">
-        <v>274848</v>
+        <v>36235</v>
       </c>
       <c r="G113">
-        <v>280989</v>
+        <v>35580</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -3381,45 +3375,45 @@
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C114">
-        <v>112</v>
-      </c>
-      <c r="D114">
-        <v>37445</v>
-      </c>
-      <c r="E114">
-        <v>39113</v>
-      </c>
-      <c r="F114">
-        <v>36235</v>
-      </c>
-      <c r="G114">
-        <v>35580</v>
+        <v>113</v>
+      </c>
+      <c r="D114" s="1">
+        <v>7.1238425925925929E-4</v>
+      </c>
+      <c r="E114" s="1">
+        <v>7.1215277777777781E-4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>7.1203703703703707E-4</v>
+      </c>
+      <c r="G114" s="1">
+        <v>7.1238425925925929E-4</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>113</v>
-      </c>
-      <c r="D115" s="1">
-        <v>7.1238425925925929E-4</v>
-      </c>
-      <c r="E115" s="1">
-        <v>7.1215277777777781E-4</v>
-      </c>
-      <c r="F115" s="1">
-        <v>7.1203703703703707E-4</v>
-      </c>
-      <c r="G115" s="1">
-        <v>7.1238425925925929E-4</v>
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>276</v>
+      </c>
+      <c r="E115">
+        <v>275</v>
+      </c>
+      <c r="F115">
+        <v>265</v>
+      </c>
+      <c r="G115">
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
@@ -3427,22 +3421,22 @@
         <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D116">
-        <v>276</v>
+        <v>428</v>
       </c>
       <c r="E116">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="F116">
-        <v>265</v>
+        <v>404</v>
       </c>
       <c r="G116">
-        <v>256</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
@@ -3450,22 +3444,10 @@
         <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C117">
-        <v>115</v>
-      </c>
-      <c r="D117">
-        <v>428</v>
-      </c>
-      <c r="E117">
-        <v>421</v>
-      </c>
-      <c r="F117">
-        <v>404</v>
-      </c>
-      <c r="G117">
-        <v>397</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -3473,10 +3455,22 @@
         <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <v>3.6</v>
+      </c>
+      <c r="E118">
+        <v>3.64</v>
+      </c>
+      <c r="F118">
+        <v>3.77</v>
+      </c>
+      <c r="G118">
+        <v>3.91</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
@@ -3484,22 +3478,22 @@
         <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D119">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>3.64</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>3.77</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>3.91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3507,22 +3501,22 @@
         <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D120">
         <v>10</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>9.09</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>9.06</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -3530,22 +3524,22 @@
         <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>9.09</v>
+        <v>25</v>
       </c>
       <c r="F121">
-        <v>9.06</v>
+        <v>24</v>
       </c>
       <c r="G121">
-        <v>9.3800000000000008</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -3553,22 +3547,22 @@
         <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D122">
-        <v>28</v>
+        <v>2.5</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F122">
-        <v>24</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G122">
-        <v>24</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -3576,22 +3570,22 @@
         <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D123">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>2.5499999999999998</v>
+        <v>7</v>
       </c>
       <c r="F123">
-        <v>2.2599999999999998</v>
+        <v>6</v>
       </c>
       <c r="G123">
-        <v>2.34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -3599,22 +3593,22 @@
         <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F124">
-        <v>6</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G124">
-        <v>6</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -3622,22 +3616,22 @@
         <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D125">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>1.0900000000000001</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>1.1299999999999999</v>
+        <v>3</v>
       </c>
       <c r="G125">
-        <v>1.17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -3645,22 +3639,22 @@
         <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -3668,22 +3662,22 @@
         <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D127">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E127">
-        <v>3.64</v>
+        <v>10</v>
       </c>
       <c r="F127">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="G127">
-        <v>3.52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -3691,22 +3685,22 @@
         <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="F128">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -3714,22 +3708,22 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D129">
-        <v>265</v>
+        <v>0.22</v>
       </c>
       <c r="E129">
-        <v>275</v>
+        <v>0.35</v>
       </c>
       <c r="F129">
-        <v>265</v>
+        <v>0.45</v>
       </c>
       <c r="G129">
-        <v>256</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -3737,22 +3731,22 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D130">
-        <v>0.22</v>
+        <v>1008831.88</v>
       </c>
       <c r="E130">
-        <v>0.35</v>
+        <v>1509774</v>
       </c>
       <c r="F130">
-        <v>0.45</v>
+        <v>1658820</v>
       </c>
       <c r="G130">
-        <v>0.46</v>
+        <v>1579675</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -3760,22 +3754,22 @@
         <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D131">
-        <v>1008831.88</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>1509774</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1658820</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>1579675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -3783,10 +3777,10 @@
         <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3806,22 +3800,22 @@
         <v>145</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1008831.88</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1509774</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1658820</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1579675</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -3829,22 +3823,22 @@
         <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D134">
-        <v>1008831.88</v>
+        <v>449198351.42000002</v>
       </c>
       <c r="E134">
-        <v>1509774</v>
+        <v>427352931</v>
       </c>
       <c r="F134">
-        <v>1658820</v>
+        <v>367529953</v>
       </c>
       <c r="G134">
-        <v>1579675</v>
+        <v>344817550</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -3852,22 +3846,10 @@
         <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C135">
-        <v>133</v>
-      </c>
-      <c r="D135">
-        <v>449198351.42000002</v>
-      </c>
-      <c r="E135">
-        <v>427352931</v>
-      </c>
-      <c r="F135">
-        <v>367529953</v>
-      </c>
-      <c r="G135">
-        <v>344817550</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -3875,10 +3857,10 @@
         <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -3886,10 +3868,19 @@
         <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C137">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E137">
+        <v>10.24</v>
+      </c>
+      <c r="F137">
+        <v>10.65</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -3897,19 +3888,19 @@
         <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D138">
-        <v>10.029999999999999</v>
+        <v>3341</v>
       </c>
       <c r="E138">
-        <v>10.24</v>
+        <v>2859</v>
       </c>
       <c r="F138">
-        <v>10.65</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -3917,19 +3908,19 @@
         <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D139">
-        <v>3341</v>
+        <v>333</v>
       </c>
       <c r="E139">
-        <v>2859</v>
+        <v>279</v>
       </c>
       <c r="F139">
-        <v>2789</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -3937,19 +3928,19 @@
         <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D140">
-        <v>333</v>
+        <v>25582.18</v>
       </c>
       <c r="E140">
-        <v>279</v>
+        <v>21637.89</v>
       </c>
       <c r="F140">
-        <v>262</v>
+        <v>14336.38</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -3957,19 +3948,19 @@
         <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D141">
-        <v>25582.18</v>
+        <v>8518865.9399999995</v>
       </c>
       <c r="E141">
-        <v>21637.89</v>
+        <v>6036972.4699999997</v>
       </c>
       <c r="F141">
-        <v>14336.38</v>
+        <v>3756130.98</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -3977,19 +3968,19 @@
         <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D142">
-        <v>8518865.9399999995</v>
+        <v>333</v>
       </c>
       <c r="E142">
-        <v>6036972.4699999997</v>
+        <v>279</v>
       </c>
       <c r="F142">
-        <v>3756130.98</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -3997,19 +3988,19 @@
         <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D143">
-        <v>333</v>
+        <v>3.6</v>
       </c>
       <c r="E143">
-        <v>279</v>
+        <v>3.32</v>
       </c>
       <c r="F143">
-        <v>262</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -4017,19 +4008,19 @@
         <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D144">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="E144">
-        <v>3.32</v>
+        <v>9</v>
       </c>
       <c r="F144">
-        <v>3.82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4037,19 +4028,19 @@
         <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="E145">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4057,19 +4048,10 @@
         <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C146">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>333</v>
-      </c>
-      <c r="E146">
-        <v>279</v>
-      </c>
-      <c r="F146">
-        <v>262</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4077,10 +4059,10 @@
         <v>159</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4088,10 +4070,10 @@
         <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4099,20 +4081,9 @@
         <v>161</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" t="s">
-        <v>40</v>
-      </c>
-      <c r="C150">
         <v>148</v>
       </c>
     </row>
